--- a/实验内容/实验四/配置部分测试.xlsx
+++ b/实验内容/实验四/配置部分测试.xlsx
@@ -147,14 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在允许的端口号范围内，程序可以运行，不合法端口号运行时提示错误信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.未设置端口号，加载框架默认端口号。        2.可以通过6001端口号进行正常访问。               3.由于端口号输入的是非法信息，将提示错误信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未通过的测试是由于端口号输入不合法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,7 +167,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合法的应用别名可以被设置，不合法的设置会提示错误</t>
+    <t>别名的设置必须满足JAVA的命名规范，否则将设置失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在配置文件中设置当前应用别名app_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在配置文件中设置是否为开发者模式app_dev，开发者模式只能设置为true和false，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA设置的开发者模式只能为true与false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setDev(boolean isDev)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在该方法中开发者模式进行设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在该方法中设置静态资源目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件中配置好的端口号SERVER_PORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在配置文件中对mvc.statics设置一个静态资源文件目录之下的目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据设置的静态资源文件目录名称在resources下生成对应的目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置的静态资源目录不能为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">addStatic(String[] statics) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.blade.mcv.view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setView404(String view404)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> setView500(String view500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在该方法中设置404出错界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在该方法中设置500出错界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在配置文件中对mvc.view.404设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404出错界面不能为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据设置的500出错界面当，出现500错误时可以跳转到设置的相应的界面中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在配置文件中对mvc.view.500设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500出错界面不能为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step7:开发人员在配置类中的配置方法获取配置信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对配置文件中的信息进行获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置好配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step1:开发人员在“基本配置类”中配置web服务器端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.SERVER_PORT: 2.SERVER_PORT:6001 3.SERVER_PORT:daf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step2:开发人员在“基本配置类”中配置当前应用别名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,199 +299,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Step1:开发人员在“基本配置类”中配置web服务器端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step2:开发人员在“基本配置类”中配置当前应用别名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别名的设置必须满足JAVA的命名规范，否则将设置失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step3:开发人员在“基本配置类”中设置是否为开发者模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在配置文件中设置当前应用别名app_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.由于设置的别名为空。  所以设置失败,此时应用程序没有别名2.由于应用别名为数字，属于不合法的应用别名，所以设置失败。                 3.由于设置的别名格式正确，所以设置成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在配置文件中设置是否为开发者模式app_dev，开发者模式只能设置为true和false，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发者模式设置为true开发者模式启动，设为false则开发者模式没有启用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.app_dev="".。 2.app_dev=false。 3.app_dev=true。4.app_dev="fdsafd"。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.未设置是否启动开发者模式，将使用框架默认的开发者模式。                   2.设置开发者模式为false则未启动开发者模式。     3.设置开发者模式为true成功启动开发者模式。4.开发者模式设置为字符，不合法，将显示错误信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JAVA设置的开发者模式只能为true与false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step4:开发人员设置一个目录为静态资源文件目录，存放在资源目录之下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>setDev(boolean isDev)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在该方法中开发者模式进行设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在该方法中设置静态资源目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置文件中配置好的端口号SERVER_PORT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在配置文件中对mvc.statics设置一个静态资源文件目录之下的目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据设置的静态资源文件目录名称在resources下生成对应的目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.mvc.statics=""。2.mvc.statics="test"。3.mvc.statics="test/test01/test02"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.由于设置的静态资源目录为空，所以不会在resource目录下生成相应的目录。2.在resource目录下生成test目录。3.在resource文件夹下生成test/test01/test02目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置的静态资源目录不能为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">addStatic(String[] statics) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.blade.mcv.view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>setView404(String view404)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> setView500(String view500)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在该方法中设置404出错界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在该方法中设置500出错界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在配置文件中对mvc.view.404设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据设置的404出错界面当，出现404错误时可以跳转到设置的相应的界面中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.出现404错误时将跳转到Error404.jsp页面中。2.由于未设置跳转界面，所以不会跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>404出错界面不能为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据设置的500出错界面当，出现500错误时可以跳转到设置的相应的界面中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在配置文件中对mvc.view.500设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.出现500错误时将跳转到Error500.jsp页面中。2.由于未设置跳转界面，所以不会跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500出错界面不能为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step5:开发人员在“出错界面类”中设置当出现404的统一界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step6:开发人员在“出错界面类”中设置当出现500的统一界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step7:开发人员在配置类中的配置方法获取配置信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对配置文件中的信息进行获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>config（）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置好配置文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取配置文件中配置的信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.mvc.view.404="Error500.jsp"。2.mvc.view.500="";</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.SERVER_PORT: 2.SERVER_PORT:6001 3.SERVER_PORT:daf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.mvc.view.404="Error404.jsp"。2.mvc.view.404="";</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功获取到配置信息中配置的各项信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -384,6 +320,70 @@
 app.dev = true mvc.view.404="Error404.jsp" mvc.view.500="Error500.jsp"                           2.server.port = 9003
 app.name = ni
 app.dev = false mvc.view.404="Error4041.jsp" mvc.view.500="Error5001.jsp"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step3:开发人员在“基本配置类”中设置是否为开发者模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step4:开发人员设置一个目录为静态资源文件目录，存放在资源目录之下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step5:开发人员在“出错界面类”中设置当出现404的统一界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step6:开发人员在“出错界面类”中设置当出现500的统一界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在允许的端口号范围内，程序可以运行，不合法端口号运行时提示错误信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未设置端口号，加载框架默认端口号。        2.可以通过6001端口号进行正常访问。               3.由于端口号输入的是非法信息，将提示错误信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法的应用别名可以被设置，不合法的设置会提示错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发者模式设置为true开发者模式启动，设为false则开发者模式没有启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未设置是否启动开发者模式，将使用框架默认的开发者模式。                   2.设置开发者模式为false则未启动开发者模式。     3.设置开发者模式为true成功启动开发者模式。4.开发者模式设置为字符，不合法，将显示错误信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.由于设置的静态资源目录为空，所以不会在resource目录下生成相应的目录。2.在resource目录下生成test目录。3.在resource文件夹下生成test/test01/test02目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据设置的404出错界面当，出现404错误时可以跳转到设置的相应的界面中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.出现404错误时将跳转到Error404.jsp页面中。2.由于未设置跳转界面，所以不会跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.mvc.view.500="Error500.jsp"。2.mvc.view.500="";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.出现500错误时将跳转到Error500.jsp页面中。2.由于未设置跳转界面，所以不会跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取配置文件中配置的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功获取到配置信息中配置的各项信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,37 +531,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="D12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -891,93 +891,93 @@
     <col min="12" max="12" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="8"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" ht="15">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="14">
         <v>42878</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
@@ -1025,37 +1025,37 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="10" t="s">
+      <c r="L6" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="142.5">
@@ -1063,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -1072,28 +1072,28 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>31</v>
+      <c r="L7" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="185.25">
@@ -1101,72 +1101,72 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="142.5">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>50</v>
+      <c r="B9" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>61</v>
+      <c r="D9" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="128.25">
@@ -1174,37 +1174,37 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>31</v>
+      <c r="I10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="128.25">
@@ -1212,37 +1212,37 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="199.5">
@@ -1250,37 +1250,37 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>79</v>
+      <c r="D12" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>49</v>
+      <c r="J12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
